--- a/ДопМатериалы/Ресурсы/data/Материалы.xlsx
+++ b/ДопМатериалы/Ресурсы/data/Материалы.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serkova\YandexDisk\ДЭ 1С\Для подготовки вариант\Ресурсы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\MDK_01.09_PR4_BJ\ДопМатериалы\Ресурсы\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C133C-5563-44AD-8BE6-BABDFBF5D480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44840660-7B7C-4C19-AD24-1652FF3E2DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D7E534D5-9DCB-49FC-B182-6C88206E5A88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D7E534D5-9DCB-49FC-B182-6C88206E5A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -166,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,42 +184,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF555454"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF555454"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <color rgb="FF5E3C17"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,62 +209,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -285,35 +221,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -632,258 +560,273 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>499.99</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>1230</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>750</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
